--- a/biology/Botanique/Liste_des_simples_traités_dans_le_De_vegetabilibus/Liste_des_simples_traités_dans_le_De_vegetabilibus.xlsx
+++ b/biology/Botanique/Liste_des_simples_traités_dans_le_De_vegetabilibus/Liste_des_simples_traités_dans_le_De_vegetabilibus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article contient une liste des simples mentionnés dans l'encyclopédie végétale De vegetabilibus avec les propriétés que l'on attribue à l'époque à ces simples.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anis
 Plante apéritive, aide à la lactation, et la menstruation, bonne pour les reins, aphrodisiaque, chasse le venin.
@@ -550,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,7 +582,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Joubarbe
 Réchauffe le foie, fait fuir la foudre (magie), si on la plante sur le toit.
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Camomille
 Huile  somnifère.  Ictères. Calme les  abcès   en boisson,   Apéritive, adoucissante, résolutive. Expulse les embryons, pour les femmes enceintes. Réconforte les nerfs.
@@ -670,7 +688,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -688,7 +706,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictame
 Extrait le poison des aliments. 
@@ -704,7 +724,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +742,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Roquette (lat. eruca)
 Astringente .   Ses graines peuvent remplacer  les graines de  moutarde  en décoction. Mangée seule elle    alourdit la tête, mais cet effet nocif disparait si on la mélange avec de la laitue, des endives, des blettes, du pourpier. Aide à la lactation, fait abonder le lait, et favorise la digestion des aliments. La roquette des bois fait abonder l'urine. Aphrodisiaque. , etc.
@@ -741,7 +763,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -760,6 +782,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -767,7 +791,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -786,6 +810,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -793,7 +819,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -812,6 +838,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,7 +847,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -838,6 +866,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -845,7 +875,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -864,6 +894,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,7 +903,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -890,6 +922,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -897,7 +931,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -916,6 +950,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -923,7 +959,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -942,6 +978,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -949,7 +987,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -968,6 +1006,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -975,7 +1015,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -994,6 +1034,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1001,7 +1043,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1020,6 +1062,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,7 +1071,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1046,6 +1090,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1053,7 +1099,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1072,6 +1118,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1079,7 +1127,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1098,6 +1146,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1105,7 +1155,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1124,6 +1174,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1131,7 +1183,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1150,6 +1202,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1157,7 +1211,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_De_vegetabilibus</t>
+          <t>Liste_des_simples_traités_dans_le_De_vegetabilibus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1176,6 +1230,8 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
